--- a/data/income_statement/1digit/size/I_IS_LARGE.xlsx
+++ b/data/income_statement/1digit/size/I_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>I-Accommodation and food service activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>I-Accommodation and food service activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,665 +841,750 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>10737871.35391</v>
+        <v>8939648.59537</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>13299911.45186</v>
+        <v>11331095.43928</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>17569108.7015</v>
+        <v>15233646.63219</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>20363067.29747</v>
+        <v>17652512.26734</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>23417445.83796</v>
+        <v>20844308.01543</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>28797220.87989</v>
+        <v>25886296.69159</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>30589383.73456</v>
+        <v>29587992.82012</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>29498231.21706</v>
+        <v>25622498.74837</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>41229278.42337999</v>
+        <v>35083147.63561</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>56460290.32114</v>
+        <v>51789685.15354</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>70637945.30353999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>67874441.62778001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>38764073.767</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>9754402.906680001</v>
+        <v>8099517.71962</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>12035354.12226</v>
+        <v>10175854.09327</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>16165151.19781</v>
+        <v>14030118.69318</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>18918176.45943</v>
+        <v>16407610.84529</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>21710281.97913</v>
+        <v>19363126.69589</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>26827411.52536</v>
+        <v>24151891.85008</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>28274869.92872</v>
+        <v>27507701.20222</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>27530132.73511</v>
+        <v>23990255.40109</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>38771332.10786</v>
+        <v>33072058.33282</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>51444751.95714</v>
+        <v>48793523.29603</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>66558511.10321</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>63952991.78999001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>36761670.468</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>809646.0346499999</v>
+        <v>731032.52697</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>929674.3078200001</v>
+        <v>864018.30759</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>1059530.2791</v>
+        <v>934821.4881900001</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>1013523.36467</v>
+        <v>923922.01945</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1182862.27751</v>
+        <v>1068477.09464</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1437329.08701</v>
+        <v>1310655.67413</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1678504.48508</v>
+        <v>1568131.12764</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1168334.54448</v>
+        <v>1058034.1195</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>1432300.16094</v>
+        <v>1286410.27725</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>2215886.48574</v>
+        <v>2112718.28917</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2467819.31344</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2419612.020419999</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1037682.068</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>173822.41258</v>
+        <v>109098.34878</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>334883.02178</v>
+        <v>291223.03842</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>344427.22459</v>
+        <v>268706.45082</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>431367.47337</v>
+        <v>320979.4026</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>524301.58132</v>
+        <v>412704.2249</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>532480.26752</v>
+        <v>423749.16738</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>636009.32076</v>
+        <v>512160.49026</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>799763.93747</v>
+        <v>574209.22778</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>1025646.15458</v>
+        <v>724679.0255399999</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>2799651.87826</v>
+        <v>883443.5683400001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1611614.88689</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1501837.81737</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>964721.231</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>201888.79811</v>
+        <v>171589.07789</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>210212.39374</v>
+        <v>189646.23357</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>269017.46329</v>
+        <v>246501.07721</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>328599.20042</v>
+        <v>301276.04191</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>332181.7195500001</v>
+        <v>301124.90824</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>521295.96241</v>
+        <v>485941.9952900001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>660643.54527</v>
+        <v>633873.82138</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>743340.3248600001</v>
+        <v>661118.32325</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>971454.3318399999</v>
+        <v>860872.12919</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>3032757.63279</v>
+        <v>1162978.88942</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1804796.44335</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1751525.3756</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1299265.561</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>88422.65205</v>
+        <v>66846.7169</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>90454.58421000003</v>
+        <v>78137.06543999999</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>112594.45352</v>
+        <v>102196.40414</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>145637.01091</v>
+        <v>128703.70219</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>167126.92734</v>
+        <v>146923.08842</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>297442.7888000001</v>
+        <v>262687.57389</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>357753.73331</v>
+        <v>319390.32295</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>466909.44006</v>
+        <v>408590.62545</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>556311.5180299999</v>
+        <v>492054.81336</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>664428.36365</v>
+        <v>638207.85943</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>901866.92433</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>866934.4684400001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>763028.924</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>88068.61924</v>
+        <v>82448.35178999999</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>90339.69021</v>
+        <v>83948.68592</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>129239.56853</v>
+        <v>118556.99258</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>156226.69513</v>
+        <v>147088.41067</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>138698.94584</v>
+        <v>129262.73171</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>185789.36185</v>
+        <v>188118.94737</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>262392.85374</v>
+        <v>276723.00143</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>233710.61445</v>
+        <v>214921.8725599999</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>365839.95642</v>
+        <v>329540.74019</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>2311222.33355</v>
+        <v>478041.49491</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>720985.60338</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>705747.7965699999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>416512.159</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>25397.52682</v>
+        <v>22294.0092</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>29418.11932</v>
+        <v>27560.48221</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>27183.44124</v>
+        <v>25747.68049</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>26735.49438</v>
+        <v>25483.92905</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>26355.84637</v>
+        <v>24939.08811</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>38063.81176</v>
+        <v>35135.47403</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>40496.95822</v>
+        <v>37760.497</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>42720.27034999999</v>
+        <v>37605.82523999999</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>49302.85739</v>
+        <v>39276.57564</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>57106.93558999999</v>
+        <v>46729.53508</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>181943.91564</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>178843.11059</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>119724.478</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>10535982.5558</v>
+        <v>8768059.517480001</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>13089699.05812</v>
+        <v>11141449.20571</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>17300091.23821</v>
+        <v>14987145.55498</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>20034468.09705</v>
+        <v>17351236.22543</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>23085264.11841</v>
+        <v>20543183.10719</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>28275924.91748</v>
+        <v>25400354.6963</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>29928740.18929</v>
+        <v>28954118.99874</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>28754890.8922</v>
+        <v>24961380.42512</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>40257824.09154</v>
+        <v>34222275.50642</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>53427532.68835001</v>
+        <v>50626706.26412</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>68833148.86019</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>66122916.25218001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>37464808.206</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>7526319.050159999</v>
+        <v>6433136.61088</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>9427650.721489999</v>
+        <v>8163891.60622</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>11970212.65675</v>
+        <v>10592060.29695</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>14280103.89346</v>
+        <v>12578396.46058</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>16416828.3118</v>
+        <v>14946408.1046</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>20364881.91623</v>
+        <v>18604872.94209</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>22065113.10822999</v>
+        <v>21414012.60248</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>22908052.4478</v>
+        <v>19967279.75486</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>29291573.34444</v>
+        <v>25185655.87545</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>34358214.10508</v>
+        <v>33001730.95199</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>45836371.00273</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>44471322.82705</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>29218915.255</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>1500556.53843</v>
+        <v>1452745.34395</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>1602286.80898</v>
+        <v>1571941.71213</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>2063430.72382</v>
+        <v>2020492.88505</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>2669631.26024</v>
+        <v>2621032.38682</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>3145305.48507</v>
+        <v>3092057.09551</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>4069443.80426</v>
+        <v>3986171.86705</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>4159874.59561</v>
+        <v>4870815.356430001</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>5181041.37116</v>
+        <v>5057955.278779999</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>6524173.003290001</v>
+        <v>6385641.51627</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>7435084.09068</v>
+        <v>7409887.94348</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>9411580.763520001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>9391853.123910001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>7350502.16</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>357019.4653400001</v>
+        <v>321107.18619</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>485734.91625</v>
+        <v>449977.38965</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>677849.1023</v>
+        <v>629863.65231</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>813888.77977</v>
+        <v>753111.9065700002</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1021554.15396</v>
+        <v>895434.6329099999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1101884.28904</v>
+        <v>1019917.62755</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1154905.78429</v>
+        <v>1336819.1616</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1589108.23238</v>
+        <v>1500932.0274</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>2143234.21224</v>
+        <v>1976066.84204</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2107751.78812</v>
+        <v>2036668.488</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>3391127.12224</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3300393.55445</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>3108257.158</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>5634860.028899999</v>
+        <v>4637959.67039</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>7328693.72395</v>
+        <v>6133474.34589</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>9159321.5682</v>
+        <v>7879036.098189999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>10774178.44433</v>
+        <v>9184504.122830002</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>12235703.99578</v>
+        <v>10948785.65708</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>15137884.84918</v>
+        <v>13565717.84281</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>16685073.38707</v>
+        <v>15155820.06436</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>16041225.04337</v>
+        <v>13333661.55214</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>20410446.59538</v>
+        <v>16677139.63082</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>24750830.36427</v>
+        <v>23507096.06147</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>32979793.99907</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>31730298.48714</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>18711832.154</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>33883.01748999999</v>
+        <v>21324.41035</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>10935.27231</v>
+        <v>8498.15855</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>69611.26243</v>
+        <v>62667.6614</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>22405.40912</v>
+        <v>19748.04436</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>14264.67699</v>
+        <v>10130.7191</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>55668.97375</v>
+        <v>33065.60468</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>65259.34126000002</v>
+        <v>50558.02009</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>96677.80089</v>
+        <v>74730.89654</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>213719.53353</v>
+        <v>146807.88632</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>64547.86201</v>
+        <v>48078.45904</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>53869.1179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>48777.66155</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>48323.783</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>3009663.505640001</v>
+        <v>2334922.9066</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>3662048.336630001</v>
+        <v>2977557.59949</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>5329878.581459999</v>
+        <v>4395085.25803</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>5754364.203590001</v>
+        <v>4772839.764849999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>6668435.806609999</v>
+        <v>5596775.00259</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>7911043.00125</v>
+        <v>6795481.754209999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>7863627.08106</v>
+        <v>7540106.396259999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>5846838.444399999</v>
+        <v>4994100.67026</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>10966250.7471</v>
+        <v>9036619.630969999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>19069318.58327</v>
+        <v>17624975.31213</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>22996777.85746</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>21651593.42513</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>8245892.951</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>2427739.23738</v>
+        <v>1904930.66512</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>2963891.55164</v>
+        <v>2374975.34456</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>3496179.63525</v>
+        <v>2851688.64822</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>4217776.47577</v>
+        <v>3391514.20628</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>4844372.123769999</v>
+        <v>3981200.41394</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>5981839.46724</v>
+        <v>4804065.7985</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>6220197.769240001</v>
+        <v>5711894.964729999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>7100166.667200001</v>
+        <v>5529028.01963</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>8320578.52554</v>
+        <v>6641431.8447</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>9723443.82841</v>
+        <v>8849095.56408</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>12586947.86422</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>11701398.32925</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>8524271.35</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>15.04116</v>
+        <v>0</v>
       </c>
       <c r="D21" s="48" t="n">
         <v>34.7147</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>1768.17792</v>
+        <v>1680.12104</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>84.40604</v>
+        <v>83.90604</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1007.06407</v>
+        <v>74.82994000000001</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1768.03619</v>
+        <v>1763.88139</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>0</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>135.55447</v>
+        <v>104.51973</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>450.53132</v>
+        <v>449.27959</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>1.62184</v>
@@ -1606,479 +1592,544 @@
       <c r="M21" s="48" t="n">
         <v>794.39446</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>884.347</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>409496.72954</v>
+        <v>358864.3481600001</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>528234.7870599999</v>
+        <v>472914.41702</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>710953.04869</v>
+        <v>622910.2063600001</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>929084.87284</v>
+        <v>829960.8992699998</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>1070085.81296</v>
+        <v>981379.1712600001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1397141.65355</v>
+        <v>1242757.47499</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1315143.18033</v>
+        <v>1534575.47878</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1993018.2894</v>
+        <v>1780189.121</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>2660146.93265</v>
+        <v>2426752.35158</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>3414503.24706</v>
+        <v>3324068.05579</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>4344764.910940001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>4254637.1385</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>3067776.446</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>2018227.46668</v>
+        <v>1546066.31696</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>2435622.04988</v>
+        <v>1902026.21284</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>2783458.408640001</v>
+        <v>2227098.32082</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>3288607.19689</v>
+        <v>2561469.40097</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>3773279.24674</v>
+        <v>2999746.41274</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>4582929.7775</v>
+        <v>3559544.44212</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>4905054.588909999</v>
+        <v>4177319.485950001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>5107012.82333</v>
+        <v>3748734.3789</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>5659981.06157</v>
+        <v>4214230.21353</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>6308938.959509999</v>
+        <v>5525025.88645</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>8241388.55882</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>7445966.796290001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>5455610.557</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>581924.26826</v>
+        <v>429992.24148</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>698156.78499</v>
+        <v>602582.2549300001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>1833698.94621</v>
+        <v>1543396.60981</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1536587.72782</v>
+        <v>1381325.55857</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1824063.68284</v>
+        <v>1615574.58865</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1929203.53401</v>
+        <v>1991415.95571</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1643429.31182</v>
+        <v>1828211.43153</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-1253328.2228</v>
+        <v>-534927.3493700001</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>2645672.22156</v>
+        <v>2395187.78627</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>9345874.754860001</v>
+        <v>8775879.748049999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>10409829.99324</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>9950195.09588</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-278378.399</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>1299763.32028</v>
+        <v>921202.49994</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>1532132.43404</v>
+        <v>1059118.63941</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>2606214.23312</v>
+        <v>1675121.95041</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>2466610.8222</v>
+        <v>1578581.81923</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>3698389.83845</v>
+        <v>2646784.80578</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>4727260.59732</v>
+        <v>2860979.81799</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>6534352.168209999</v>
+        <v>4650635.50631</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>5690059.38339</v>
+        <v>3573294.87001</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>7801830.21695</v>
+        <v>5071931.12851</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>20494895.22423</v>
+        <v>17391568.72586</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>11972630.86993</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>10510585.22651</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>12103151.655</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>14565.61039</v>
+        <v>13115.59813</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>8601.560589999999</v>
+        <v>7309.342999999999</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>46780.49211</v>
+        <v>16343.13162</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>54352.12226</v>
+        <v>19896.68155</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>188012.38135</v>
+        <v>38425.44744</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>111102.72563</v>
+        <v>28722.72108</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>64759.47829</v>
+        <v>52675.12171</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>414578.19466</v>
+        <v>325950.2442200001</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>199368.94505</v>
+        <v>76601.37114</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>114074.81238</v>
+        <v>81301.46770000001</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>192261.43205</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>186810.23526</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>29391.124</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>2121.62703</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>5740.17829</v>
+        <v>4571.03929</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>13278.45722</v>
+        <v>2566.92919</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>54715.84411</v>
+        <v>5770.534</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>24889.82631</v>
+        <v>7923.40683</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>69554.25620999999</v>
+        <v>13929.46323</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>168926.35549</v>
+        <v>98145.7849</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>58554.77813999999</v>
+        <v>47134.40227</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>208147.12571</v>
+        <v>137376.10293</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>33542.60934</v>
+        <v>18473.47596</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>126924.34916</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>94887.04143000001</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>11221.795</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>137315.21349</v>
+        <v>95465.43031</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>136276.3107</v>
+        <v>95761.78488999998</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>315014.99369</v>
+        <v>123439.49438</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>407752.89862</v>
+        <v>150103.82232</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>389158.48198</v>
+        <v>176762.42257</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>540665.12705</v>
+        <v>228264.90775</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>401782.07278</v>
+        <v>232390.00873</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>703438.20688</v>
+        <v>213805.2202</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>983427.8614399998</v>
+        <v>371898.1008499999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>825447.7359600002</v>
+        <v>604692.95166</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>958266.66889</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>644517.23888</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>499279.19</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>1137.15904</v>
+        <v>752.7873099999999</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>4371.325529999999</v>
+        <v>1963.71361</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>7654.617260000001</v>
+        <v>5275.807000000001</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1652.61291</v>
+        <v>1360.72695</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>1320.99187</v>
+        <v>1305.72769</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>6113.471189999999</v>
+        <v>1236.31428</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>19069.06937</v>
+        <v>16712.35004</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>7300.70963</v>
+        <v>4172.58061</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>3862.07942</v>
+        <v>3223.53727</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>4550.525640000001</v>
+        <v>4341.52371</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>10448.37907</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>10204.64443</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>3892.576</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>53891.60544000001</v>
+        <v>19516.42012</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>18632.39444</v>
+        <v>16695.42759</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>19139.19615</v>
+        <v>8568.593830000002</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>22418.31738</v>
+        <v>12312.80569</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>92455.24490000002</v>
+        <v>80493.92736000002</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>92053.43542000001</v>
+        <v>83831.03515000001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>84867.02832</v>
+        <v>79501.92153000001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>96130.92922000001</v>
+        <v>87558.98593</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>105103.37129</v>
+        <v>89645.87614000001</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>127410.96952</v>
+        <v>96366.77054000001</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>118224.34194</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>114204.97633</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>95835.386</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>12364.70149</v>
+        <v>611.5637399999999</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>29879.04176</v>
+        <v>3896.45751</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>26021.87492</v>
+        <v>19540.56779</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>33848.76966</v>
+        <v>30682.89946</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>133285.99632</v>
+        <v>88433.23439</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>362292.3291799999</v>
+        <v>18039.8113</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>248949.67703</v>
+        <v>107319.41201</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>127897.4247</v>
+        <v>18781.70873</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>98128.83676000001</v>
+        <v>3915.25185</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>426822.5415500001</v>
+        <v>42858.23415</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>347248.31476</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>96801.49233000001</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>35733.727</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>698175.5016100002</v>
+        <v>492671.9406099999</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1043759.6583</v>
+        <v>712384.40494</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1708240.05375</v>
+        <v>1218049.0395</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1445886.66881</v>
+        <v>1021025.61251</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>2326317.43241</v>
+        <v>1842873.50722</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>2946138.47525</v>
+        <v>2048574.64193</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>4915062.568309999</v>
+        <v>3609396.21805</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>3608410.48136</v>
+        <v>2390922.70524</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>5484204.17161</v>
+        <v>3924784.31943</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>18087004.22082</v>
+        <v>15805483.10479</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>9082364.1186</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>8290763.589209999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>10720936.116</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>2771.24091</v>
+        <v>1579.87101</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>969.64777</v>
+        <v>801.2326700000001</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>339.80244</v>
+        <v>315.3145</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>91.11189</v>
+        <v>65.65192999999999</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>6319.6554</v>
+        <v>6238.45255</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>1021.67848</v>
+        <v>993.5241900000001</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>803.34136</v>
+        <v>759.7816000000001</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>7821.224669999999</v>
+        <v>7824.53698</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>1800.67154</v>
+        <v>1675.90831</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>2687.43465</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>8072.977150000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>8065.30475</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>13080.561</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>557.7682</v>
@@ -2090,10 +2141,10 @@
         <v>5.585109999999999</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>40.04164</v>
+        <v>5.13114</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>10.88108</v>
+        <v>0</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>0</v>
@@ -2102,283 +2153,318 @@
         <v>0</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>1362.06968</v>
+        <v>0</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>51.89109</v>
+        <v>0</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>0</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>38.63171</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>8.30231</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>376862.89268</v>
+        <v>294809.49348</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>282036.57329</v>
+        <v>213869.49254</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>469739.16047</v>
+        <v>281017.48749</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>445852.4349200001</v>
+        <v>337357.95368</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>536618.94683</v>
+        <v>404328.67973</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>598319.0989099999</v>
+        <v>437387.3990800001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>630132.5772599999</v>
+        <v>453734.90774</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>664565.36445</v>
+        <v>477144.4858299999</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>717735.2630400001</v>
+        <v>462810.66059</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>873354.37437</v>
+        <v>735363.7627000001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>1128781.6566</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1064322.40158</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>693781.1800000001</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>828750.2632</v>
+        <v>581197.60873</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>938571.1176199999</v>
+        <v>668795.1234500001</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>2781699.14248</v>
+        <v>1794825.69633</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1325053.58393</v>
+        <v>885015.4903200001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>4344281.52337</v>
+        <v>3047724.52106</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>3403809.823379999</v>
+        <v>2125962.1147</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>7323136.401</v>
+        <v>4938766.159040001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>6778576.737639999</v>
+        <v>4116191.74938</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>9693994.24212</v>
+        <v>6715056.4544</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>23673335.49855001</v>
+        <v>20577133.04854</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>12484122.06717</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>11121323.42701</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>17674234.022</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>41892.62556999999</v>
+        <v>39690.17281</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>68463.04875</v>
+        <v>65103.43401999999</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>93620.35765000001</v>
+        <v>90735.20551</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>104283.58589</v>
+        <v>97046.46992</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>121388.18889</v>
+        <v>114743.04316</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>146633.57142</v>
+        <v>138412.89008</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>163860.04069</v>
+        <v>167511.01325</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>164771.42476</v>
+        <v>148753.80256</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>215129.64868</v>
+        <v>193319.34297</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>279228.53532</v>
+        <v>258237.59921</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>362528.6077299999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>347130.19463</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>207391.633</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>49209.79707000001</v>
+        <v>31714.16457</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>43067.76096</v>
+        <v>32707.70192</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>58496.98482</v>
+        <v>52435.03855</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>30246.41203</v>
+        <v>24393.17761</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>74408.72824</v>
+        <v>63821.68096</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>60720.77438</v>
+        <v>52626.8034</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>110453.52244</v>
+        <v>94688.20852000001</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>93327.43046999999</v>
+        <v>55471.22086</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>59468.84867</v>
+        <v>39288.62841</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>63766.98847</v>
+        <v>60773.64751</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>576897.21979</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>513883.7340400001</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>284447.54</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>17993.83614</v>
+        <v>5375.306860000001</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>18678.13546</v>
+        <v>12282.82796</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>19691.24381</v>
+        <v>16299.04904</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>28343.32031</v>
+        <v>15329.72761</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>21121.09479</v>
+        <v>10795.53715</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>17699.28403</v>
+        <v>4120.3487</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>5402.53849</v>
+        <v>5438.47849</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>5462.60187</v>
+        <v>4735.12159</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>1533.54047</v>
+        <v>204.86579</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>5948.4425</v>
+        <v>814.81292</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>2602.2635</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>1074.36424</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>14819.539</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>611613.5365400001</v>
+        <v>416047.69868</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>734780.29301</v>
+        <v>502421.3233</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>2364373.17257</v>
+        <v>1535172.23352</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>885211.5218000001</v>
+        <v>629506.8990500001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>3852402.5339</v>
+        <v>2729803.90994</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>2831197.94323</v>
+        <v>1776794.76215</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>6871187.942980001</v>
+        <v>4510972.11308</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>6145750.819409999</v>
+        <v>3809982.2996</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>8889848.961959999</v>
+        <v>6370298.86013</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>23070828.4437</v>
+        <v>20049685.55443</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>11181659.18293</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>9964744.730780002</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>16956588.518</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>1728.49108</v>
+        <v>460.30436</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>222.51064</v>
+        <v>203.20698</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>6761.49882</v>
+        <v>4118.27855</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>1232.85872</v>
+        <v>1173.54162</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>2042.34931</v>
+        <v>2037.90357</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>2140.31782</v>
+        <v>2053.06665</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>800.1093799999999</v>
+        <v>518.76791</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>1135.67254</v>
+        <v>1369.80236</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>731.1296699999999</v>
+        <v>363.4024</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>4110.92919</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>8135.42348</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>6316.203</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2408,7 +2499,7 @@
         <v>182.50093</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>1.68886</v>
+        <v>185.07374</v>
       </c>
       <c r="I42" s="48" t="n">
         <v>196.6854</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>3446.42062</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>14.89</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>106311.9768</v>
+        <v>87909.96145</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>73202.06516</v>
+        <v>55919.32563</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>238755.88481</v>
+        <v>96065.89116000001</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>275325.73466</v>
+        <v>117155.52399</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>272736.12731</v>
+        <v>126339.94535</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>345416.24364</v>
+        <v>151769.16998</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>171235.56162</v>
+        <v>159440.89239</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>368128.78859</v>
+        <v>95879.50241</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>527282.1126700001</v>
+        <v>111581.3547</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>249452.15148</v>
+        <v>203510.49739</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>348852.94912</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>282908.5592200001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>204655.699</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>711327.5079499999</v>
+        <v>481362.9428</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>677857.21925</v>
+        <v>462226.80422</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>1410751.53826</v>
+        <v>1066125.29025</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>1040638.73501</v>
+        <v>680814.6431600001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>2254031.50426</v>
+        <v>1427740.0592</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1673697.72337</v>
+        <v>1105733.99469</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>2799975.98535</v>
+        <v>2060089.53498</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>3420000.04385</v>
+        <v>2096882.32932</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>4558010.89689</v>
+        <v>3009065.17418</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>8991959.443220001</v>
+        <v>7131112.079630001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>6220420.796920001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>5223845.28713</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>7375019.212</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>452289.90814</v>
+        <v>297485.36622</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>401727.76507</v>
+        <v>273798.0409</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>725477.6078899999</v>
+        <v>514882.21884</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>683452.3871500002</v>
+        <v>431680.0880799999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>1293524.35281</v>
+        <v>958752.98245</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>1098490.5193</v>
+        <v>654640.4834700001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1595648.10621</v>
+        <v>1127180.51045</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1852531.61555</v>
+        <v>1190142.9263</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>2423162.52476</v>
+        <v>1520394.53235</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>3871479.54963</v>
+        <v>2657829.83578</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>3199586.01709</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2475284.30934</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>3046679.679</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>259037.59981</v>
+        <v>183877.57658</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>276129.45418</v>
+        <v>188428.76332</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>685273.9303700001</v>
+        <v>551243.0714100001</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>357186.34786</v>
+        <v>249134.55508</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>960507.15145</v>
+        <v>468987.07675</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>575207.2040700001</v>
+        <v>451093.51122</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1204327.87914</v>
+        <v>932909.0245299999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1567468.4283</v>
+        <v>906739.40302</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>2134848.37213</v>
+        <v>1488670.64183</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>5120479.89359</v>
+        <v>4473282.24385</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>3020834.77983</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>2748560.97779</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>4328339.533</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>341609.81739</v>
+        <v>288634.18989</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>613860.88216</v>
+        <v>530678.96667</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>247462.49859</v>
+        <v>357567.57364</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>1637506.23108</v>
+        <v>1394077.24432</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-1075859.50634</v>
+        <v>-213105.18583</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1578956.58458</v>
+        <v>1620699.66431</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-1945330.90632</v>
+        <v>-520008.75618</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-5761845.6209</v>
+        <v>-3174706.55806</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-3804502.700499999</v>
+        <v>-2257002.7138</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-2824524.96268</v>
+        <v>-1540796.65426</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>3677917.99908</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>4115611.608250001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-13224479.978</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>208040.03952</v>
+        <v>117134.30433</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>239379.93106</v>
+        <v>124532.91156</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>319680.9384299999</v>
+        <v>156320.69762</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>262672.44056</v>
+        <v>171538.827</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>901439.29056</v>
+        <v>320275.36159</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>996093.7733699998</v>
+        <v>692763.2192899999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1059699.48863</v>
+        <v>871163.75952</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>975704.5636300001</v>
+        <v>533504.82536</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>1064151.9435</v>
+        <v>614192.05282</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>681956.54951</v>
+        <v>621293.0423000001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1417053.14731</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>733694.7097500002</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>729970.451</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>5553.625349999998</v>
+        <v>4054.86054</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>3942.43064</v>
+        <v>3106.96017</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>5953.315439999999</v>
+        <v>3656.03211</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>6981.18501</v>
+        <v>3933.06738</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>3142.52333</v>
+        <v>2643.54461</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>5945.106849999999</v>
+        <v>1805.93797</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>5562.729439999999</v>
+        <v>1994.18323</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>16033.75318</v>
+        <v>13145.03467</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>15183.43057</v>
+        <v>6973.57008</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>77452.04114999999</v>
+        <v>77354.29311999999</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>34910.0677</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>34856.8936</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>11931.343</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>202486.41417</v>
+        <v>113079.44379</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>235437.50042</v>
+        <v>121425.95139</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>313727.62299</v>
+        <v>152664.66551</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>255691.25555</v>
+        <v>167605.75962</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>898296.7672299999</v>
+        <v>317631.8169799999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>990148.6665199999</v>
+        <v>690957.28132</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1054136.75919</v>
+        <v>869169.5762900001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>959670.81045</v>
+        <v>520359.7906900001</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>1048968.51293</v>
+        <v>607218.48274</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>604504.50836</v>
+        <v>543938.74918</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1382143.07961</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>698837.81615</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>718039.108</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>175916.42295</v>
+        <v>108325.4877</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>275535.70227</v>
+        <v>165607.41436</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>877737.07045</v>
+        <v>600594.48811</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>418025.5715400001</v>
+        <v>198289.39266</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>393939.4371099999</v>
+        <v>253100.27602</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>624038.6145799999</v>
+        <v>420463.02111</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>504561.19878</v>
+        <v>308775.30148</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>787077.2911</v>
+        <v>510388.7823</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>1639503.41437</v>
+        <v>523861.40588</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>835001.8714399999</v>
+        <v>686263.72514</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1004909.59573</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>780028.0388099998</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>534285.307</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>23767.0032</v>
+        <v>16106.19505</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>27083.19114</v>
+        <v>14958.68811</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>41974.71624</v>
+        <v>29029.30177</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>43425.55951</v>
+        <v>38328.11099</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>60871.08681</v>
+        <v>46309.28374</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>55441.68251</v>
+        <v>48133.92724</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>57188.20748</v>
+        <v>48757.00018</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>61323.10643000001</v>
+        <v>52471.51815</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>75087.81711</v>
+        <v>56348.48184</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>53124.66653</v>
+        <v>53120.79853</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>60644.9909</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>53907.28976000001</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>80477.21799999999</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>19757.86751</v>
+        <v>12746.91035</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>29773.92116000001</v>
+        <v>25799.36778</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>25180.13982</v>
+        <v>21476.02644</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>16635.92916</v>
+        <v>10235.8165</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>44953.91542999999</v>
+        <v>16481.99353</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>37071.96666</v>
+        <v>27083.74692</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>40639.49944</v>
+        <v>23900.3524</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>33445.35658</v>
+        <v>17613.18088</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>29465.19115</v>
+        <v>20428.08718</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>33517.26480999999</v>
+        <v>30312.45539</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>159347.83241</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>92330.61291999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>26743.822</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>132391.55224</v>
+        <v>79472.3823</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>218678.58997</v>
+        <v>124849.35847</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>810582.2143899999</v>
+        <v>550089.1599</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>357964.0828699999</v>
+        <v>149725.46517</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>288114.43487</v>
+        <v>190308.99875</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>531524.9654100001</v>
+        <v>345245.34695</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>406733.49186</v>
+        <v>236117.9489</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>692308.82809</v>
+        <v>440304.08327</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>1534950.40611</v>
+        <v>447084.83686</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>748359.9400999999</v>
+        <v>602830.4712200001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>784916.7724199999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>633790.13613</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>427064.267</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>373733.43396</v>
+        <v>297443.00652</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>577705.11095</v>
+        <v>489604.4638699999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-310593.63343</v>
+        <v>-86706.21685</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>1482153.1001</v>
+        <v>1367326.67866</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-568359.65289</v>
+        <v>-145930.10026</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>1951011.74337</v>
+        <v>1892999.86249</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-1390192.61647</v>
+        <v>42379.70186000002</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-5573218.34837</v>
+        <v>-3151590.515</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-4379854.171369999</v>
+        <v>-2166672.06686</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-2977570.28461</v>
+        <v>-1605767.3371</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>4090061.55066</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>4069278.27919</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-13028794.834</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>106540.98188</v>
+        <v>80914.09617</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>152608.24514</v>
+        <v>119403.13927</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>244709.30429</v>
+        <v>203682.71274</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>253381.26055</v>
+        <v>210856.09525</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>252436.53442</v>
+        <v>216948.57982</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>332627.90922</v>
+        <v>294227.98092</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>315421.03666</v>
+        <v>302193.27928</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>205923.90574</v>
+        <v>181454.66274</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>367983.27793</v>
+        <v>315883.57583</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>650099.67973</v>
+        <v>606740.10337</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>853077.4251400001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>772429.14696</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>192712.473</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>267192.45208</v>
+        <v>216528.91035</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>425096.86581</v>
+        <v>370201.3246000001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-555302.9377199999</v>
+        <v>-290388.92959</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>1228771.83955</v>
+        <v>1156470.58341</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-820796.18731</v>
+        <v>-362878.68008</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>1618383.83415</v>
+        <v>1598771.88157</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-1705613.65313</v>
+        <v>-259813.57742</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-5779142.25411</v>
+        <v>-3333045.17774</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-4747837.4493</v>
+        <v>-2482555.64269</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-3627669.96434</v>
+        <v>-2212507.44047</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>3236984.12552</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>3296849.13223</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-13221507.307</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>409</v>
+        <v>197</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>466</v>
+        <v>222</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>537</v>
+        <v>270</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>618</v>
+        <v>302</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>574</v>
+        <v>332</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>635</v>
+        <v>353</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>700</v>
+        <v>375</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>759</v>
+        <v>309</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>827</v>
+        <v>343</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>481</v>
+        <v>358</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>398</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>